--- a/Guidance_ADHD_clean_dataset1.xlsx
+++ b/Guidance_ADHD_clean_dataset1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Desktop\Article 8 - Stabilité TDAH\Statistical analyses - authors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\ADHD_MoB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C84A86-B04D-46FA-BE58-3EA01EE861A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D3EED-C9A6-4D0D-9B76-5DAA7BF2F88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0706A30-52FC-452A-9281-FDD806BFA54F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0706A30-52FC-452A-9281-FDD806BFA54F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>presentationfollowup</t>
+  </si>
+  <si>
+    <t>pharmabaseline</t>
+  </si>
+  <si>
+    <t>pharmafollowup</t>
   </si>
 </sst>
 </file>
@@ -481,25 +487,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3704885-88D5-487E-BD9F-02C4F93FBA1F}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L2:L20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,13 +539,19 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -594,11 +608,11 @@
       <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -629,11 +643,11 @@
       <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -662,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -688,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -717,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -748,11 +762,11 @@
       <c r="J8" t="s">
         <v>4</v>
       </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -777,11 +791,11 @@
       <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="K9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -812,11 +826,11 @@
       <c r="J10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -844,11 +858,11 @@
       <c r="J11" t="s">
         <v>4</v>
       </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -879,11 +893,11 @@
       <c r="J12" t="s">
         <v>4</v>
       </c>
-      <c r="K12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -908,11 +922,11 @@
       <c r="J13" t="s">
         <v>4</v>
       </c>
-      <c r="K13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -941,7 +955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -969,11 +983,11 @@
       <c r="J15" t="s">
         <v>4</v>
       </c>
-      <c r="K15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1001,11 +1015,11 @@
       <c r="J16" t="s">
         <v>4</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1033,11 +1047,11 @@
       <c r="J17" t="s">
         <v>4</v>
       </c>
-      <c r="K17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1069,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1097,11 +1111,11 @@
       <c r="J19" t="s">
         <v>4</v>
       </c>
-      <c r="K19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1132,7 +1146,7 @@
       <c r="J20" t="s">
         <v>4</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>5</v>
       </c>
     </row>
